--- a/topics.xlsx
+++ b/topics.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Slides" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t xml:space="preserve">Settimana</t>
   </si>
@@ -40,6 +41,9 @@
     <t xml:space="preserve">Letture</t>
   </si>
   <si>
+    <t xml:space="preserve">Materiale</t>
+  </si>
+  <si>
     <t xml:space="preserve">Introduzione all'econometria</t>
   </si>
   <si>
@@ -55,166 +59,193 @@
     <t xml:space="preserve">Modello Lineare Univariato</t>
   </si>
   <si>
+    <t xml:space="preserve">Formalizzazione e stima dei coefficienti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cap. 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predizioni ed effetti causali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferenza sui coefficienti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R e il modello lineare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modello Lineare Multivariato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distorsioni da variabili omesse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cap. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stima dei parametri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferenza su singoli parametri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferenza su più parametri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutti i modelli sono sbagliati, alcuni sono utili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variabili misurate con errore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Econometria in azione (I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il caso dei salari italiani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funzioni di regressioni non lineari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polinomi e trasformazioni logaritmiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cap. 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interazioni fra variabili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regressione con variabile dipendente binaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelli Logit e Probit: motivazioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cap. 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stima dei coefficienti e inferenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clasificazione e predire di probabilità</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valutazione di studi basati sulla regressione multipla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validità interna e validità esterna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cap. 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dati Panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caratteristiche dei dati panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cap. 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regressioni in differenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regressioni con effetti fissi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferenze in dati panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Econometria in azione (II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armi e crimine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variabili Strumentali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduzione  variabili strumentali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il modello di regressione IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferenza con strumenti forti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferenza con strumenti deboli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Econometria in azione (III)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il valore dell'istruzione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperimenti e quasi-esperimenti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperimenti ideali ed effetti causali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stima degli effetti causali con esperimenti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quasi-esperimenti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regressioni per serie temporali di tipo economico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previsioni economiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 12-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlazione seriale e stazionarietà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualità delle previsioni multiperiodali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stima degli effetti causali dinamici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altro materiale</t>
+  </si>
+  <si>
     <t xml:space="preserve">Formalizzazione e Stima dei parametri</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cap. 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predizioni ed effetti causali</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inferenza</t>
   </si>
   <si>
-    <t xml:space="preserve">R e il modello lineare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modello Lineare Multivariato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distorsioni da variabili omesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cap. 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stima dei parametri </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inferenza su singoli parametri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inferenza su più parametri </t>
-  </si>
-  <si>
     <t xml:space="preserve">Modelli misspecificati: tutti i modelli sono sbagliati, alcuni sono utili</t>
   </si>
   <si>
-    <t xml:space="preserve">Variabili misurate con errore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Econometria in azione (I)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il caso dei salari italiani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funzioni di regressioni non lineari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polinomi e trasformazioni logaritmiche</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cap. 6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interazioni </t>
   </si>
   <si>
-    <t xml:space="preserve">Regressione con variabile dipendente binaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelli Logit e Probit: motivazioni</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cap. 9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stima dei parametri e inferenza</t>
   </si>
   <si>
     <t xml:space="preserve">Predire la probabilità</t>
   </si>
   <si>
-    <t xml:space="preserve">Valutazione di studi basati sulla regressione multipla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validità interna e validità esterna</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cap. 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dati Panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caratteristiche dei dati panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cap. 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regressioni in differenza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regressioni con effetti fissi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inferenze in dati panel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Econometria in azione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armi e crimine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variabili Strumentali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduzione  variabili strumentali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap. 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il modello di regressione IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inferenza con strumenti forti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inferenza con strumenti deboli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il valore dell'istruzione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperimenti e quasi-esperimenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperimenti ideali ed effetti causali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap. 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stima degli effetti causali con esperimenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quasi-esperimenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regressioni per serie temporali di tipo economico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previsioni economiche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap. 12-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correlazione seriale e stazionarietà</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualità delle previsioni multiperiodali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stima degli effetti causali dinamici</t>
   </si>
 </sst>
 </file>
@@ -330,13 +361,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.11"/>
@@ -364,6 +395,9 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -377,10 +411,10 @@
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,10 +429,10 @@
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,13 +446,13 @@
         <v>44986</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,7 +466,7 @@
         <v>44988</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,7 +480,7 @@
         <v>44991</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,7 +495,7 @@
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,13 +509,13 @@
         <v>44998</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -495,7 +529,7 @@
         <v>45000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,7 +543,7 @@
         <v>45002</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,7 +558,7 @@
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,7 +573,7 @@
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,7 +588,7 @@
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,13 +602,13 @@
         <v>45012</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,13 +622,13 @@
         <v>45014</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,7 +643,7 @@
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,13 +657,13 @@
         <v>45019</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,7 +677,7 @@
         <v>45021</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,7 +691,7 @@
         <v>45028</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,13 +705,13 @@
         <v>45030</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,13 +725,13 @@
         <v>45033</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,7 +745,7 @@
         <v>45035</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,7 +759,7 @@
         <v>45037</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,7 +773,7 @@
         <v>45042</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,13 +787,13 @@
         <v>45044</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,13 +807,13 @@
         <v>45049</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,7 +827,7 @@
         <v>45051</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,7 +841,7 @@
         <v>45054</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,7 +855,7 @@
         <v>45056</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,10 +869,10 @@
         <v>45058</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,13 +886,13 @@
         <v>45061</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,7 +907,7 @@
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,7 +922,7 @@
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,13 +936,13 @@
         <v>45068</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,7 +956,7 @@
         <v>45070</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,7 +970,7 @@
         <v>45072</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,7 +984,7 @@
         <v>45075</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -962,4 +996,609 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="59.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>44984</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>44986</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>44988</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>44993</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>44998</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45000</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45002</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45005</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45007</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>45009</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>45021</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>45028</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>45030</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>45035</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>45037</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>45042</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>45044</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>45049</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>45051</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>45054</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>45056</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>45058</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>45063</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>45065</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>45070</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>45072</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/topics.xlsx
+++ b/topics.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t xml:space="preserve">Settimana</t>
   </si>
@@ -50,6 +50,9 @@
     <t xml:space="preserve"> Cap. 1</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;a href=Lecture13.pdf&gt;Slides&lt;/a&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Richiami di probabilità e statistica</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Cap. 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href=Lecture45.pdf&gt;Slides&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Predizioni ed effetti causali</t>
@@ -364,10 +370,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.11"/>
@@ -416,6 +422,9 @@
       <c r="F2" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -429,10 +438,13 @@
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,13 +458,16 @@
         <v>44986</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,7 +481,10 @@
         <v>44988</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,7 +498,7 @@
         <v>44991</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,11 +509,11 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44993</v>
+        <v>44992</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,13 +527,13 @@
         <v>44998</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,10 +544,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,7 +561,7 @@
         <v>45002</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,7 +576,7 @@
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,11 +587,11 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45007</v>
+        <v>45006</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,7 +606,7 @@
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,13 +620,13 @@
         <v>45012</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,16 +637,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45014</v>
+        <v>45013</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,7 +661,7 @@
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,13 +675,13 @@
         <v>45019</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,10 +692,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,7 +709,7 @@
         <v>45028</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,16 +720,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,13 +743,13 @@
         <v>45033</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,10 +760,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45035</v>
+        <v>45034</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,7 +777,7 @@
         <v>45037</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,7 +791,7 @@
         <v>45042</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,16 +802,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45044</v>
+        <v>45043</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,13 +825,13 @@
         <v>45049</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,10 +842,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45051</v>
+        <v>45050</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,7 +859,7 @@
         <v>45054</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,7 +873,7 @@
         <v>45056</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,13 +884,13 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45058</v>
+        <v>45057</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,13 +904,13 @@
         <v>45061</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,11 +921,11 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45063</v>
+        <v>45062</v>
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,7 +940,7 @@
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,13 +954,13 @@
         <v>45068</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,10 +971,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45070</v>
+        <v>45069</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,7 +988,7 @@
         <v>45072</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -984,7 +1002,7 @@
         <v>45075</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +1027,7 @@
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="59.87"/>
   </cols>
@@ -1031,10 +1049,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,7 +1080,7 @@
         <v>44984</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,10 +1094,10 @@
         <v>44986</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,7 +1112,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,7 +1127,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,7 +1141,7 @@
         <v>44993</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,10 +1155,10 @@
         <v>44998</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,7 +1173,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,7 +1188,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,7 +1202,7 @@
         <v>45005</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,7 +1216,7 @@
         <v>45007</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1212,7 +1230,7 @@
         <v>45009</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,10 +1244,10 @@
         <v>45012</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,10 +1261,10 @@
         <v>45014</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,7 +1278,7 @@
         <v>45016</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,10 +1292,10 @@
         <v>45019</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,7 +1310,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,7 +1325,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,10 +1339,10 @@
         <v>45030</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,10 +1356,10 @@
         <v>45033</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,7 +1374,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,7 +1389,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,7 +1404,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,10 +1418,10 @@
         <v>45044</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,10 +1435,10 @@
         <v>45049</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,7 +1453,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,7 +1468,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1483,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,10 +1497,10 @@
         <v>45058</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,10 +1514,10 @@
         <v>45061</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,7 +1531,7 @@
         <v>45063</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,7 +1545,7 @@
         <v>45065</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,10 +1559,10 @@
         <v>45068</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,7 +1577,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,7 +1592,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,7 +1607,7 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
